--- a/biology/Botanique/Heliotropium_ramosissimum/Heliotropium_ramosissimum.xlsx
+++ b/biology/Botanique/Heliotropium_ramosissimum/Heliotropium_ramosissimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliotropium ramosissimum est une plante herbacée de la famille des Boraginacées originaire des Îles Canaries et de Madère., d'Afrique de l'ouest et de la péninsule arabique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliotropium crispum Desf.
 </t>
@@ -542,9 +556,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En espagnolː Hierba camellera[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En espagnolː Hierba camellera.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante herbacée aux feuilles légèrement charnues et pilleuses, et fleurs blanches[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée aux feuilles légèrement charnues et pilleuses, et fleurs blanches.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Îles Canaries et Madère[3], Afrique de l'ouest[4] (Mauritanie, Sénégal, Mali, Burkina-faso, Nigeria), Soudan et péninsule arabique (Arabie Saoudite, Yémen, Oman), ainsi qu'à l'est jusqu'à l'Afghanistan.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Îles Canaries et Madère, Afrique de l'ouest (Mauritanie, Sénégal, Mali, Burkina-faso, Nigeria), Soudan et péninsule arabique (Arabie Saoudite, Yémen, Oman), ainsi qu'à l'est jusqu'à l'Afghanistan.
 </t>
         </is>
       </c>
